--- a/August 2018/Saturday_Sunday_Weekday(PriceScen)/Partial_AugPrice.xlsx
+++ b/August 2018/Saturday_Sunday_Weekday(PriceScen)/Partial_AugPrice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\August 2018\Saturday_Sunday_Weekday(PriceScen)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08922BD9-5817-497B-A85D-F771DADFAC28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B511710A-113D-4171-8263-BE037573293B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7644" xr2:uid="{9DADE23F-4AF7-4CE8-B427-BC4AE4A33DDE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7644" xr2:uid="{9E5523A5-F96F-451D-8662-7A377454AF0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="35" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15954" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15930" uniqueCount="182">
   <si>
     <t>XStore</t>
   </si>
@@ -1002,7 +1002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11272EE-95D1-412E-B97E-D96AD05E918B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686F4A50-5132-469B-A9B7-607676441B6E}">
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2099,69 +2099,69 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{EE681798-4D85-40FD-BAA9-47B730729A61}"/>
-    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{0356FEB1-843E-44DB-90BD-62DA32E8342A}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{3C0E0CA5-5558-4A9F-84FA-D492A1A29F31}"/>
-    <hyperlink ref="A6" location="Days_Distribution!A1" display="Days_Distribution" xr:uid="{289A61B5-66B2-4524-8C46-10B77F8D8C17}"/>
-    <hyperlink ref="A7" location="Diff_Release!A1" display="Diff_Release" xr:uid="{35743F43-8175-443E-95B5-9C2CCB57DFDB}"/>
-    <hyperlink ref="A8" location="Duration!A1" display="Duration" xr:uid="{7BE6B8D9-9005-444C-8F51-9A6504D0E809}"/>
-    <hyperlink ref="A10" location="Energy_Price!A1" display="Energy_Price" xr:uid="{CC2B5320-C8FD-413B-A7EF-A3E4D2585230}"/>
-    <hyperlink ref="A11" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{84A2134B-B7BA-44F1-BE4E-7706059D4A14}"/>
-    <hyperlink ref="A12" location="EQ10_SteadyFlow_Day!A1" display="EQ10_SteadyFlow_Day" xr:uid="{491700F8-6BC7-4C0B-802D-D58A207C6A0C}"/>
-    <hyperlink ref="A13" location="EQ11_Unsteadydays_OffpeakRel!A1" display="EQ11_Unsteadydays_OffpeakRel" xr:uid="{14953E04-9A7D-4D21-B748-C94B1B3C96E2}"/>
-    <hyperlink ref="A14" location="EQ12_OffsetRel!A1" display="EQ12_OffsetRel" xr:uid="{A9B6E9CB-91EA-4312-B05A-10E730396274}"/>
-    <hyperlink ref="A15" location="EQ13a_OnPeak_Saturday!A1" display="EQ13a_OnPeak_Saturday" xr:uid="{4E1539EE-2135-40C3-B1BB-4C1FCE9519C0}"/>
-    <hyperlink ref="A16" location="EQ13b_OnPeak_Sunday!A1" display="EQ13b_OnPeak_Sunday" xr:uid="{0544B535-A7DF-4816-BD53-9D23883E26C6}"/>
-    <hyperlink ref="A17" location="EQ14_Steady_Saturdays!A1" display="EQ14_Steady_Saturdays" xr:uid="{F51E780C-2D34-4312-92F1-6D909AD00901}"/>
-    <hyperlink ref="A18" location="EQ15_Steady_Weekdays!A1" display="EQ15_Steady_Weekdays" xr:uid="{FCD6A6A7-C7C4-4659-8361-98E4B8F7A21B}"/>
-    <hyperlink ref="A19" location="EQ17_OnPeak_UnsteadyDay!A1" display="EQ17_OnPeak_UnsteadyDay" xr:uid="{822CD5AD-F556-4E0B-BA6D-D7981885A719}"/>
-    <hyperlink ref="A20" location="EQ19_EnergyGen_Max!A1" display="EQ19_EnergyGen_Max" xr:uid="{0AABF9A8-5E86-4B07-B439-A32F398DA1C6}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{E96175E8-889C-4042-BC15-11505E30B526}"/>
-    <hyperlink ref="A22" location="EQ20_EnergyGen!A1" display="EQ20_EnergyGen" xr:uid="{173555C1-ED76-442B-B78A-695B12E862D1}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="EQ21_EnergyRevenue" xr:uid="{2F33B93D-DB18-4385-9687-08735E1514EC}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{42409F4F-2DBD-45D8-A252-B2CDE6A52868}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{4B3F424A-05EF-4050-9A0F-A3197BEE53DD}"/>
-    <hyperlink ref="A26" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{0BE4A6A6-0E86-41E9-9BC0-48B8BD2B369A}"/>
-    <hyperlink ref="A27" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{EA7141EA-BCA7-4402-8228-4CC58DC14F71}"/>
-    <hyperlink ref="A28" location="EQ6_ZeroFlowDays!A1" display="EQ6_ZeroFlowDays" xr:uid="{F1296F87-5213-4071-80B5-4B1C71821907}"/>
-    <hyperlink ref="A29" location="EQ7_Rel_Range!A1" display="EQ7_Rel_Range" xr:uid="{EE101D54-8630-47FF-91B0-78B62FAD53D2}"/>
-    <hyperlink ref="A30" location="Scalar!A1" display="EQ8_Monthtlyrel" xr:uid="{8E1D9C03-F368-418D-85C4-4BF9C8DF62C9}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="EQ9_RelVolume" xr:uid="{369DBC06-0B85-4D86-BE64-58FA91B000BE}"/>
-    <hyperlink ref="A32" location="Scalar!A1" display="evap" xr:uid="{E995E0D2-1B3E-4AD4-B430-5BBD0709AA98}"/>
-    <hyperlink ref="A33" location="FlowPattern!A1" display="FlowPattern" xr:uid="{4670741D-E595-4350-A27B-7B41CE6F1E15}"/>
-    <hyperlink ref="A35" location="FStore!A1" display="FStore" xr:uid="{B218B9CB-1AA2-4335-A376-5D34545AD2C9}"/>
-    <hyperlink ref="A36" location="Scalar!A1" display="Inflow" xr:uid="{43039E16-3309-4D74-8CCC-B3E2BE7CFFA2}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Initstorage" xr:uid="{2FA013E9-948B-43AB-9176-ACEE65472B91}"/>
-    <hyperlink ref="A38" location="Scalar!A1" display="maxRel" xr:uid="{948C7DF1-5D39-4D03-8F50-22B081C86785}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="maxstorage" xr:uid="{5802F7D5-7731-4266-8EB8-958ECB8E4697}"/>
-    <hyperlink ref="A40" location="Scalar!A1" display="minRel" xr:uid="{559E37E4-5340-4ADD-96D5-03D3215E88D4}"/>
-    <hyperlink ref="A41" location="Scalar!A1" display="minstorage" xr:uid="{753A1EC5-08B0-4A09-9E2A-83EF9ED0D953}"/>
-    <hyperlink ref="A42" location="ModelResults!A1" display="ModelResults" xr:uid="{6C9D60DB-E039-4B75-9D3B-29582951AFF0}"/>
-    <hyperlink ref="A43" location="modpar!A1" display="modpar" xr:uid="{EDA87339-329C-43E9-9E31-35FE85106211}"/>
-    <hyperlink ref="A44" location="Num_Days!A1" display="Num_Days" xr:uid="{09D8C0A2-47F1-4185-82A8-BF6AF78AD412}"/>
-    <hyperlink ref="A45" location="Scalar!A1" display="Nu_Saturdays" xr:uid="{01A5A788-AAE4-403B-9B06-3985F1C0EFEC}"/>
-    <hyperlink ref="A46" location="Nu_SteadyDays!A1" display="Nu_SteadyDays" xr:uid="{8372B56E-0B9B-45E0-BA92-0959290F48C3}"/>
-    <hyperlink ref="A47" location="Scalar!A1" display="Nu_Sun_Holi" xr:uid="{105EF503-9B41-4FA1-95E1-8321793008C3}"/>
-    <hyperlink ref="A48" location="Scalar!A1" display="ObjectiveVal" xr:uid="{0DC6C07F-3069-4221-9C78-F3BAF824CE7A}"/>
-    <hyperlink ref="A49" location="Offset!A1" display="Offset" xr:uid="{C17F3B82-9C97-400B-8986-27DA297BB9FB}"/>
-    <hyperlink ref="A50" location="p!A1" display="p" xr:uid="{09D0BC0B-2413-4D19-ACFA-C107C61B3581}"/>
-    <hyperlink ref="A52" location="Scalar!A1" display="Released_vol" xr:uid="{005282AB-B803-4CF5-9D1B-6B3B99CB0EFC}"/>
-    <hyperlink ref="A53" location="RStore!A1" display="RStore" xr:uid="{CE06D7EC-9AEA-4CF6-A838-0F79637E4D7C}"/>
-    <hyperlink ref="A55" location="Sstore!A1" display="Sstore" xr:uid="{7E9E666B-D9E1-405F-8961-B5D4ED6DE8FC}"/>
-    <hyperlink ref="A56" location="Scalar!A1" display="storage" xr:uid="{548898BA-CA2A-4F41-9F44-FFAD31265A23}"/>
-    <hyperlink ref="A58" location="Scalar!A1" display="Totaldays" xr:uid="{6AD6B307-BD88-4566-BEB6-9EEA8091C279}"/>
-    <hyperlink ref="A59" location="Scalar!A1" display="TotMonth_volume" xr:uid="{169D32B4-0018-469C-911E-FDE9725CB1B5}"/>
-    <hyperlink ref="A60" location="tot_vol!A1" display="tot_vol" xr:uid="{DA23457E-9C0C-4856-9C5C-5C85FD314B80}"/>
-    <hyperlink ref="A61" location="Vol_monthlyrelease!A1" display="Vol_monthlyrelease" xr:uid="{372F32D7-A5C4-4E37-92C1-6FFA0033CD9B}"/>
-    <hyperlink ref="A63" location="Scalar!A1" display="Weekend_Rel" xr:uid="{78946CA1-39DA-442D-9FDF-8DC928765854}"/>
-    <hyperlink ref="A64" location="XStore!A1" display="XStore" xr:uid="{13AE368A-5ECF-4976-A232-149E2002A52E}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Convert" xr:uid="{3452E7B1-55BD-41E8-AAEF-04551E93A70C}"/>
+    <hyperlink ref="A3" location="d!A1" display="d" xr:uid="{1B916EC4-1EF7-4737-B506-7A91C719D5DB}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Daily_RelRange" xr:uid="{A4DF5732-3DF3-4BF7-A87B-53324802C8F2}"/>
+    <hyperlink ref="A6" location="Days_Distribution!A1" display="Days_Distribution" xr:uid="{DEC8BD43-37AD-4CAC-ADB0-19FA25DF6527}"/>
+    <hyperlink ref="A7" location="Diff_Release!A1" display="Diff_Release" xr:uid="{5D8377F8-1A80-4E94-B43A-C6BE0E575B12}"/>
+    <hyperlink ref="A8" location="Duration!A1" display="Duration" xr:uid="{B6F9AD61-38CF-4C35-A923-53B353BA4C45}"/>
+    <hyperlink ref="A10" location="Energy_Price!A1" display="Energy_Price" xr:uid="{136B2707-3DE4-42D6-83DE-F21D0DCA8C0D}"/>
+    <hyperlink ref="A11" location="Energy_Rate!A1" display="Energy_Rate" xr:uid="{2DE5D1C3-65BF-4FF0-A0AB-B889B8563348}"/>
+    <hyperlink ref="A12" location="EQ10_SteadyFlow_Day!A1" display="EQ10_SteadyFlow_Day" xr:uid="{0F44C09E-EFC2-466F-8A91-83970EBC652E}"/>
+    <hyperlink ref="A13" location="EQ11_Unsteadydays_OffpeakRel!A1" display="EQ11_Unsteadydays_OffpeakRel" xr:uid="{7FDEF923-EC62-487D-B2C2-0D30F0D7A068}"/>
+    <hyperlink ref="A14" location="EQ12_OffsetRel!A1" display="EQ12_OffsetRel" xr:uid="{4A8B1A5A-9954-4140-BDFD-25568D1B9670}"/>
+    <hyperlink ref="A15" location="EQ13a_OnPeak_Saturday!A1" display="EQ13a_OnPeak_Saturday" xr:uid="{FA442FBD-BC6B-42E3-835D-5D13F07008AB}"/>
+    <hyperlink ref="A16" location="EQ13b_OnPeak_Sunday!A1" display="EQ13b_OnPeak_Sunday" xr:uid="{D4984F1F-5310-4008-AEA7-F6A16892C9C0}"/>
+    <hyperlink ref="A17" location="EQ14_Steady_Saturdays!A1" display="EQ14_Steady_Saturdays" xr:uid="{BDB939C0-FBBA-402D-B0FA-58BC2E6C083A}"/>
+    <hyperlink ref="A18" location="EQ15_Steady_Weekdays!A1" display="EQ15_Steady_Weekdays" xr:uid="{EBFD89E2-C76B-4845-AC97-651735765525}"/>
+    <hyperlink ref="A19" location="EQ17_OnPeak_UnsteadyDay!A1" display="EQ17_OnPeak_UnsteadyDay" xr:uid="{A6EB5217-364F-41CF-9F57-74B90305707E}"/>
+    <hyperlink ref="A20" location="EQ19_EnergyGen_Max!A1" display="EQ19_EnergyGen_Max" xr:uid="{62981A14-1D7C-4EBB-9D2E-7C7C5C1F7AFD}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQ1_ResMassBal" xr:uid="{25DFF50E-8877-483E-AC6D-D00B142BCD1E}"/>
+    <hyperlink ref="A22" location="EQ20_EnergyGen!A1" display="EQ20_EnergyGen" xr:uid="{FB32E558-7CE4-48F3-AB8C-9E0159F5EB4D}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="EQ21_EnergyRevenue" xr:uid="{30FD25C4-6074-4E17-A345-CF8A5A859C0A}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="EQ2_reqpowerstorage" xr:uid="{FA94A618-1DDA-4169-A651-3C21C63368AF}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="EQ3_maxstor" xr:uid="{6470E7E9-7DE0-4302-A8E2-8B254BA738D1}"/>
+    <hyperlink ref="A26" location="EQ4_MaxR!A1" display="EQ4_MaxR" xr:uid="{7C6ED418-59AF-465E-A35C-45DC9A70EB31}"/>
+    <hyperlink ref="A27" location="EQ5_MinR!A1" display="EQ5_MinR" xr:uid="{985314F0-CA92-4398-8971-7876E229B59D}"/>
+    <hyperlink ref="A28" location="EQ6_ZeroFlowDays!A1" display="EQ6_ZeroFlowDays" xr:uid="{193F7B57-955D-4BB4-A469-224D603BE2CB}"/>
+    <hyperlink ref="A29" location="EQ7_Rel_Range!A1" display="EQ7_Rel_Range" xr:uid="{F288E9A5-03A8-4812-BC4A-068272D7B1C2}"/>
+    <hyperlink ref="A30" location="Scalar!A1" display="EQ8_Monthtlyrel" xr:uid="{0E1DE887-AE23-4448-BC2D-5D96B3A3A2AE}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="EQ9_RelVolume" xr:uid="{BE272BB8-63A7-4F11-AD85-914CFCF0A5B2}"/>
+    <hyperlink ref="A32" location="Scalar!A1" display="evap" xr:uid="{92CCC052-84A4-4EF9-ACC3-EF74BF4F749C}"/>
+    <hyperlink ref="A33" location="FlowPattern!A1" display="FlowPattern" xr:uid="{FBE8576B-B483-4FC3-8BDA-30CC8B00CFD4}"/>
+    <hyperlink ref="A35" location="FStore!A1" display="FStore" xr:uid="{3814E563-4350-482E-8657-83BB53242B64}"/>
+    <hyperlink ref="A36" location="Scalar!A1" display="Inflow" xr:uid="{8C0ED920-CB5B-4411-917E-F88F47CC2252}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Initstorage" xr:uid="{EDFB3AC2-DA4E-47CB-89C3-F5E72129CBF7}"/>
+    <hyperlink ref="A38" location="Scalar!A1" display="maxRel" xr:uid="{05809CA4-C06E-48B4-99F6-6EB0F3AEAB4D}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="maxstorage" xr:uid="{6FB4EBF3-487D-48BB-9098-0AE35E93866E}"/>
+    <hyperlink ref="A40" location="Scalar!A1" display="minRel" xr:uid="{922AB7C9-7472-43A5-9588-6F22CE53A649}"/>
+    <hyperlink ref="A41" location="Scalar!A1" display="minstorage" xr:uid="{466E2DD8-5AAF-4728-A8D5-36AFBEFB05DF}"/>
+    <hyperlink ref="A42" location="ModelResults!A1" display="ModelResults" xr:uid="{8BA7CB34-6FFC-45EF-AFE9-DB1EEF981213}"/>
+    <hyperlink ref="A43" location="modpar!A1" display="modpar" xr:uid="{5537E2D0-9BA4-4061-9AA8-F39DE2C3DED8}"/>
+    <hyperlink ref="A44" location="Num_Days!A1" display="Num_Days" xr:uid="{00C94CF3-1D51-46E7-8C98-4C0C8B5A3A79}"/>
+    <hyperlink ref="A45" location="Scalar!A1" display="Nu_Saturdays" xr:uid="{909070F8-A2C2-485A-9C9C-667D5BB2C66C}"/>
+    <hyperlink ref="A46" location="Nu_SteadyDays!A1" display="Nu_SteadyDays" xr:uid="{D2B1EB7D-1843-4A09-9830-E94F78064C35}"/>
+    <hyperlink ref="A47" location="Scalar!A1" display="Nu_Sun_Holi" xr:uid="{06CED1F6-0B90-40FF-A979-588D569B927E}"/>
+    <hyperlink ref="A48" location="Scalar!A1" display="ObjectiveVal" xr:uid="{411616C9-6FDD-4A43-86F2-25983E9D2A0A}"/>
+    <hyperlink ref="A49" location="Offset!A1" display="Offset" xr:uid="{62E36361-47E6-4A90-B952-E09237576591}"/>
+    <hyperlink ref="A50" location="p!A1" display="p" xr:uid="{3B65C01C-2D55-4F65-A8D9-DCA41E50E9F0}"/>
+    <hyperlink ref="A52" location="Scalar!A1" display="Released_vol" xr:uid="{245D89B6-D408-448E-B1B1-7CAB8306E8A2}"/>
+    <hyperlink ref="A53" location="RStore!A1" display="RStore" xr:uid="{B3856644-1077-4354-AE77-2E333FB4F870}"/>
+    <hyperlink ref="A55" location="Sstore!A1" display="Sstore" xr:uid="{44CD9F21-0243-4679-AB66-CE3E921EFF97}"/>
+    <hyperlink ref="A56" location="Scalar!A1" display="storage" xr:uid="{E852AFB4-DE47-44BA-809B-B9527C9B71AD}"/>
+    <hyperlink ref="A58" location="Scalar!A1" display="Totaldays" xr:uid="{1792422E-1D04-42D3-A8EF-CE05688EC4F5}"/>
+    <hyperlink ref="A59" location="Scalar!A1" display="TotMonth_volume" xr:uid="{25DD3AF9-0EC0-47E2-B003-9B3EBEAB88A4}"/>
+    <hyperlink ref="A60" location="tot_vol!A1" display="tot_vol" xr:uid="{273CB9BB-5757-4406-AC1C-FA036F783C13}"/>
+    <hyperlink ref="A61" location="Vol_monthlyrelease!A1" display="Vol_monthlyrelease" xr:uid="{90C61C2F-0C09-4A68-871C-7D41A196486A}"/>
+    <hyperlink ref="A63" location="Scalar!A1" display="Weekend_Rel" xr:uid="{7B99ED6C-6A61-4D3F-857C-476900879B80}"/>
+    <hyperlink ref="A64" location="XStore!A1" display="XStore" xr:uid="{8642F9CB-A129-4CDF-84E8-772760FCBF84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D9BF91-03A4-4E8D-9EAE-A54738B86C80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE639F9-788C-457F-9F54-0036F1E96391}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-8.6143260215053807</v>
+        <v>-10.112469677419353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-8.6143260215053807</v>
+        <v>-10.112469677419359</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2288,16 +2288,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F7" xr:uid="{D7CE7E4E-0E5C-4649-94B5-5D2BA1F28387}"/>
+  <autoFilter ref="A3:F7" xr:uid="{6B584AFD-6323-43C3-96C6-E692A2D8DFD6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EC7F78E8-7666-4D85-BADF-00B32BF5CC72}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4A507A7C-57DE-4B51-B7E2-57BC9B9C98A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52835C7-AAA8-499B-94B5-20546851A9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5C8075-325B-4E11-B1B5-0135E1A629C5}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2354,7 +2354,7 @@
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>-26.966585806451633</v>
+        <v>-13.483292903225845</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2375,16 +2375,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{A20FEDEF-51EC-4FB6-A099-26EF82E5861B}"/>
+  <autoFilter ref="A3:E5" xr:uid="{B9285088-208C-4CCF-95B5-F998CEA7E3CC}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EA1C4AC7-7515-435B-B2F8-35BF7016C07A}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0DB72158-2458-4683-83D7-F2CDA3D6EC62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48C4D8E-8676-46BA-8F96-F5307F6C5DEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88126057-76C9-4639-8245-AF2C04827EFC}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2449,8 +2449,8 @@
       <c r="E4">
         <v>-2000</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
+      <c r="F4">
+        <v>-2000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2472,8 +2472,8 @@
       <c r="E5">
         <v>-2000</v>
       </c>
-      <c r="F5" t="s">
-        <v>78</v>
+      <c r="F5">
+        <v>-2000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2495,8 +2495,8 @@
       <c r="E6">
         <v>-2000</v>
       </c>
-      <c r="F6" t="s">
-        <v>78</v>
+      <c r="F6">
+        <v>-2000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2518,8 +2518,8 @@
       <c r="E7">
         <v>-2000</v>
       </c>
-      <c r="F7" t="s">
-        <v>78</v>
+      <c r="F7">
+        <v>-2000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2541,11 +2541,11 @@
       <c r="E8">
         <v>-2000</v>
       </c>
-      <c r="F8" t="s">
-        <v>78</v>
+      <c r="F8">
+        <v>-2000</v>
       </c>
       <c r="G8">
-        <v>-17.228652043010761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2564,8 +2564,8 @@
       <c r="E9">
         <v>-2000</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
+      <c r="F9">
+        <v>-2000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2587,8 +2587,8 @@
       <c r="E10">
         <v>-2000</v>
       </c>
-      <c r="F10" t="s">
-        <v>78</v>
+      <c r="F10">
+        <v>-2000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2610,8 +2610,8 @@
       <c r="E11">
         <v>-2000</v>
       </c>
-      <c r="F11" t="s">
-        <v>78</v>
+      <c r="F11">
+        <v>-2000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2633,8 +2633,8 @@
       <c r="E12">
         <v>-2000</v>
       </c>
-      <c r="F12" t="s">
-        <v>78</v>
+      <c r="F12">
+        <v>-2000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2656,8 +2656,8 @@
       <c r="E13">
         <v>-2000</v>
       </c>
-      <c r="F13" t="s">
-        <v>78</v>
+      <c r="F13">
+        <v>-2000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2679,8 +2679,8 @@
       <c r="E14">
         <v>-2000</v>
       </c>
-      <c r="F14" t="s">
-        <v>78</v>
+      <c r="F14">
+        <v>-2000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2702,24 +2702,24 @@
       <c r="E15">
         <v>-2000</v>
       </c>
-      <c r="F15" t="s">
-        <v>78</v>
+      <c r="F15">
+        <v>-2000</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>14.606900645161289</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{28E61AAA-7DD7-476C-8DC8-6C7B4C2880E3}"/>
+  <autoFilter ref="A3:G15" xr:uid="{384EC32F-6DEB-4A4A-868A-2245E41E6AFF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{917B0073-A745-4294-93B2-560AC9AAFF20}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CAAF51EB-61F8-4B69-957F-85C49AFB2D34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18722FC5-04D4-4379-AC57-80432F7FE87C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B6E109-DA9E-4D34-B67F-81D2AC2AC139}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2784,8 +2784,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>78</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2807,11 +2807,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>78</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-17.228652043010747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2830,8 +2830,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>78</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2853,8 +2853,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>78</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2876,8 +2876,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>78</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2899,8 +2899,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2922,8 +2922,8 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>78</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2945,8 +2945,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
-        <v>78</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2968,8 +2968,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="s">
-        <v>78</v>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2991,11 +2991,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>78</v>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>-20.224939354838718</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3014,8 +3014,8 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
-        <v>78</v>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3037,24 +3037,24 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="s">
-        <v>78</v>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{AC8493EF-FE4E-496C-8A8D-1D56EED2DA30}"/>
+  <autoFilter ref="A3:G15" xr:uid="{37968F7F-2257-408D-B1CA-7535A8437A2F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C9C1C5E8-4FC7-4237-8A8A-F23F881B34D9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{60E05A29-0B82-4BDF-9744-8D44C1C88410}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6BC12B-9677-48C6-8646-5500C46D6B6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C9F3BF-6B63-437E-82CB-907CBC761305}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>-51.685956129032277</v>
+        <v>8.9888619354838664</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3380,16 +3380,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{202F5223-6481-4A1A-9AC9-8DC8AC72C9C7}"/>
+  <autoFilter ref="A3:G15" xr:uid="{A8C67D39-C8DB-4D36-B8D8-26FB883E65C9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6749302F-91AC-4404-BE67-D07C6318B97F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F186531E-B0A9-43C5-9948-FB3C3CA97ADF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272BDCE8-3B9F-4B33-9479-BEBC8AE1D06F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D755732C-2639-4957-9D09-813C31196438}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>103.37191225806454</v>
+        <v>51.68595612903227</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3715,16 +3715,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{DBF45FBC-5688-44CE-A5F2-865E3F5ECF0D}"/>
+  <autoFilter ref="A3:G15" xr:uid="{A106B71F-53D5-4B56-9DAC-9A008C3FEA92}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{135A6BE4-1110-48DE-85CF-5039BCA0879D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{047F938C-4C37-4C2F-BD96-A93CC8CA0D39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3384DC8A-4F35-4460-AC68-ECCF2C176B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB373159-AD52-463B-AD13-FF20DA9C4537}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3891,16 +3891,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{67D03D96-1E17-4CA8-B62F-3F8CD6B60669}"/>
+  <autoFilter ref="A3:F9" xr:uid="{56838AE2-FB67-4C3C-938A-E29D425E9D37}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5C9561F5-AE18-47F4-BA55-A1E439BC984E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F12D1B06-A84E-4FEC-8F08-1DE6652C3BD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FC2892-029D-4759-8F13-4D5431A1ABDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CA76FD-C9CF-4D07-A9F9-149D05256EAC}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4226,16 +4226,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{24ADC291-F3E1-433E-B5EA-E3720F308D67}"/>
+  <autoFilter ref="A3:G15" xr:uid="{7914DF50-04C9-426E-8308-BEFD6979B510}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0AD4DCE7-BC2B-4D3E-A927-5693A3D1DFEC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E21DCE89-F39D-4F1C-9342-72726D0A5271}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E802216F-D2AA-4167-B177-E0EE77E3493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB7FC9C-240B-48AD-AD45-F748BB8DDD41}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>198.8</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -4561,16 +4561,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{613E6D96-4E31-43DA-9F34-C086ACDC8742}"/>
+  <autoFilter ref="A3:G15" xr:uid="{45381F4C-135A-4538-BE99-A672ABDDC0D7}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E5A85ABB-5711-493F-9AAE-E4AB15D6CFFA}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5E873938-2205-48FD-9BEC-21FB2A4394EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3839DD0F-092F-41E9-BC97-CE1C8206F9BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB09A15F-B659-495F-9800-0FAA3422FD2D}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4896,16 +4896,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{24D619CD-22C8-4AA1-BDD8-BB155B4E59D0}"/>
+  <autoFilter ref="A3:G15" xr:uid="{C3F8422E-4505-4E34-8128-DDF650B4B053}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3F7CCA49-946D-417F-AC5D-779B1FBD3A10}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{50D34B8C-E611-4247-B2A8-426CC3D1D0CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB6133-A235-4DF1-9557-2527F58CD6AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A68E4-586A-4880-98BE-C996D6DEEA77}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5276,7 +5276,7 @@
         <v>-1100000</v>
       </c>
       <c r="E28">
-        <v>-28.731932245109476</v>
+        <v>-29.860052467936267</v>
       </c>
       <c r="F28" t="s">
         <v>159</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-28.731932245109476</v>
+        <v>-29.860052467936267</v>
       </c>
       <c r="F29" t="s">
         <v>161</v>
@@ -5304,14 +5304,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D93BEDB2-66E8-4F20-9517-5B9287BC9E6D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{568D6BA8-C784-43D9-9C08-837352F463FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC9B83A-E184-4C22-BE88-E5422BB4070E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2043848B-FA6C-4AD6-BB3A-2F08DD9DC364}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5637,16 +5637,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{B7286F67-1A0B-42F4-8556-7252E747A10A}"/>
+  <autoFilter ref="A3:G15" xr:uid="{04FC8B4E-EDBC-4DD9-93BC-F7185B210453}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{409FEFCF-926F-4D3E-B1C9-0F6A06EAF9AC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C4AA50F8-EEF0-47BE-8B4C-F74A15F1CA36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8DF551-7867-42B9-AC33-C9B3D6F7DA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960DDD3E-3350-4B00-9AAF-EFD051A8FAD4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5972,16 +5972,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G15" xr:uid="{86B1725D-C1C8-40FC-BE53-3E364F814ADB}"/>
+  <autoFilter ref="A3:G15" xr:uid="{33DE9AB8-C8B9-4088-9D78-D35648CC4C46}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F32A3FAF-225E-458D-A658-832202D0D13F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7E5BC506-61C9-4BC2-8AB5-AFFE96F4D18E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C75912D-7D4B-4FF0-9D4B-ED7DAABBD4E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DAA380-D9B0-46FB-95A8-17C74CF59757}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6144,20 +6144,20 @@
         <v>8000</v>
       </c>
       <c r="F9">
-        <v>52.809563870967736</v>
+        <v>43.820701935483868</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{7FBB0211-8548-40B6-9F1A-AC8260EC16DD}"/>
+  <autoFilter ref="A3:F9" xr:uid="{9D5010A1-29D2-4169-9F4E-B1C750D9762E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{59268996-74CE-4585-A064-C5806A05D399}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B6A1C205-143E-4F19-893B-6399F058EB12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD518A99-D732-4AB6-AC17-A60D37C287C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1036D8DC-6010-411A-BCAC-9A2142B2D8E8}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6199,16 +6199,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{042FB6A5-E988-41BF-8653-0B0909F457FA}"/>
+  <autoFilter ref="A3:A5" xr:uid="{2ADD8FA7-8716-4472-B033-222469BED653}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{78499AF3-79E0-4686-B879-630F07A3100F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D50E1AB7-509F-4BBB-BB28-91E7A4D58A4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E56BD00-4775-4EF2-9BEE-4D187C14E335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60117514-E163-4BDD-9CDB-8ECCED9DC7DE}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6259,7 +6259,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>20987173.704531677</v>
+        <v>21789673.306241743</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6273,7 +6273,7 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>21034168.485526104</v>
+        <v>21844841.092626505</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6287,7 +6287,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>21084404.285899464</v>
+        <v>21903813.553934362</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6301,7 +6301,7 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>21196039.39784025</v>
+        <v>22034863.467951812</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6315,7 +6315,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>21325536.127691567</v>
+        <v>22034863.467951804</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6329,7 +6329,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>21477554.027951814</v>
+        <v>22034863.467951812</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6343,7 +6343,7 @@
         <v>23</v>
       </c>
       <c r="D10">
-        <v>21477554.027951803</v>
+        <v>22034863.467951804</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6357,7 +6357,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>21477554.027951803</v>
+        <v>22034863.467951804</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6371,7 +6371,7 @@
         <v>25</v>
       </c>
       <c r="D12">
-        <v>21238956.600823943</v>
+        <v>21836878.368845705</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6385,7 +6385,7 @@
         <v>26</v>
       </c>
       <c r="D13">
-        <v>20886892.841684159</v>
+        <v>21544740.35594248</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6399,7 +6399,7 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>20534829.082544375</v>
+        <v>21252602.343039256</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6413,7 +6413,7 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>20112352.571576633</v>
+        <v>20902036.727555387</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6427,7 +6427,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>24184701.493105326</v>
+        <v>25156419.128239412</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6441,7 +6441,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>24243237.395227365</v>
+        <v>25225135.187252238</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6455,7 +6455,7 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>24294923.351356391</v>
+        <v>25285810.005316753</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6469,7 +6469,7 @@
         <v>20</v>
       </c>
       <c r="D19">
-        <v>24398295.263614457</v>
+        <v>25407159.641445789</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6483,7 +6483,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>24501667.175872527</v>
+        <v>25319518.237574819</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6497,7 +6497,7 @@
         <v>22</v>
       </c>
       <c r="D21">
-        <v>24605039.088130593</v>
+        <v>25231876.833703853</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6511,7 +6511,7 @@
         <v>23</v>
       </c>
       <c r="D22">
-        <v>24534626.336302631</v>
+        <v>25173449.231123202</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6525,7 +6525,7 @@
         <v>24</v>
       </c>
       <c r="D23">
-        <v>24464213.584474675</v>
+        <v>25115021.628542561</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6539,7 +6539,7 @@
         <v>25</v>
       </c>
       <c r="D24">
-        <v>24112149.825334888</v>
+        <v>24822883.615639329</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6553,7 +6553,7 @@
         <v>26</v>
       </c>
       <c r="D25">
-        <v>23760086.066195104</v>
+        <v>24530745.602736108</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6567,7 +6567,7 @@
         <v>27</v>
       </c>
       <c r="D26">
-        <v>23408022.307055321</v>
+        <v>24238607.589832883</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6581,7 +6581,7 @@
         <v>28</v>
       </c>
       <c r="D27">
-        <v>22985545.796087582</v>
+        <v>23888041.974349014</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6595,7 +6595,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>27064744.663609277</v>
+        <v>28150465.615981348</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6609,7 +6609,7 @@
         <v>18</v>
       </c>
       <c r="D29">
-        <v>27116430.619738311</v>
+        <v>28211140.434045866</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6623,7 +6623,7 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <v>27168116.57586734</v>
+        <v>28271815.252110381</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6637,7 +6637,7 @@
         <v>20</v>
       </c>
       <c r="D31">
-        <v>27271488.488125406</v>
+        <v>28393164.888239417</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6651,7 +6651,7 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>27374860.400383472</v>
+        <v>28305523.484368447</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6665,7 +6665,7 @@
         <v>22</v>
       </c>
       <c r="D33">
-        <v>27478232.312641539</v>
+        <v>28217882.080497481</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6679,7 +6679,7 @@
         <v>23</v>
       </c>
       <c r="D34">
-        <v>27407819.56081358</v>
+        <v>28159454.477916829</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6693,7 +6693,7 @@
         <v>24</v>
       </c>
       <c r="D35">
-        <v>27337406.808985624</v>
+        <v>28101026.875336189</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6707,7 +6707,7 @@
         <v>25</v>
       </c>
       <c r="D36">
-        <v>26985343.049845837</v>
+        <v>27808888.862432957</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6721,7 +6721,7 @@
         <v>26</v>
       </c>
       <c r="D37">
-        <v>26633279.290706053</v>
+        <v>27516750.849529736</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6735,7 +6735,7 @@
         <v>27</v>
       </c>
       <c r="D38">
-        <v>26281215.53156627</v>
+        <v>27224612.836626511</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6749,7 +6749,7 @@
         <v>28</v>
       </c>
       <c r="D39">
-        <v>25858739.020598527</v>
+        <v>26874047.221142642</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6763,7 +6763,7 @@
         <v>11</v>
       </c>
       <c r="D40">
-        <v>29937937.888120223</v>
+        <v>31136470.862774972</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6777,7 +6777,7 @@
         <v>18</v>
       </c>
       <c r="D41">
-        <v>29989623.84424926</v>
+        <v>31197145.680839486</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6791,7 +6791,7 @@
         <v>19</v>
       </c>
       <c r="D42">
-        <v>30041309.800378285</v>
+        <v>31257820.498904005</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6805,7 +6805,7 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>30144681.712636352</v>
+        <v>31379170.135033041</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6819,7 +6819,7 @@
         <v>21</v>
       </c>
       <c r="D44">
-        <v>30248053.624894422</v>
+        <v>31291528.731162071</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6833,7 +6833,7 @@
         <v>22</v>
       </c>
       <c r="D45">
-        <v>30351425.537152488</v>
+        <v>31203887.327291105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6847,7 +6847,7 @@
         <v>23</v>
       </c>
       <c r="D46">
-        <v>30281012.785324525</v>
+        <v>31145459.724710453</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6861,7 +6861,7 @@
         <v>24</v>
       </c>
       <c r="D47">
-        <v>30210600.03349657</v>
+        <v>31087032.122129813</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6875,7 +6875,7 @@
         <v>25</v>
       </c>
       <c r="D48">
-        <v>29858536.274356782</v>
+        <v>30794894.109226581</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6889,7 +6889,7 @@
         <v>26</v>
       </c>
       <c r="D49">
-        <v>29506472.515216999</v>
+        <v>30502756.09632336</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6903,7 +6903,7 @@
         <v>27</v>
       </c>
       <c r="D50">
-        <v>29154408.756077215</v>
+        <v>30210618.083420135</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6917,7 +6917,7 @@
         <v>28</v>
       </c>
       <c r="D51">
-        <v>28731932.245109476</v>
+        <v>29860052.467936266</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6931,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="D52">
-        <v>32811131.112631172</v>
+        <v>34122476.109568603</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6945,7 +6945,7 @@
         <v>18</v>
       </c>
       <c r="D53">
-        <v>32862817.068760209</v>
+        <v>34183150.927633114</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6959,7 +6959,7 @@
         <v>19</v>
       </c>
       <c r="D54">
-        <v>32914503.024889234</v>
+        <v>34243825.745697632</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6973,7 +6973,7 @@
         <v>20</v>
       </c>
       <c r="D55">
-        <v>33017874.937147301</v>
+        <v>34365175.381826669</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6987,7 +6987,7 @@
         <v>21</v>
       </c>
       <c r="D56">
-        <v>33121246.849405371</v>
+        <v>34277533.977955699</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7001,7 +7001,7 @@
         <v>22</v>
       </c>
       <c r="D57">
-        <v>33224618.761663437</v>
+        <v>34189892.574084729</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7015,7 +7015,7 @@
         <v>23</v>
       </c>
       <c r="D58">
-        <v>33154206.009835474</v>
+        <v>34131464.971504085</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7029,7 +7029,7 @@
         <v>24</v>
       </c>
       <c r="D59">
-        <v>33083793.258007519</v>
+        <v>34073037.368923441</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7043,7 +7043,7 @@
         <v>25</v>
       </c>
       <c r="D60">
-        <v>32731729.498867732</v>
+        <v>33780899.356020212</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7057,7 +7057,7 @@
         <v>26</v>
       </c>
       <c r="D61">
-        <v>32379665.739727948</v>
+        <v>33488761.343116987</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7071,7 +7071,7 @@
         <v>27</v>
       </c>
       <c r="D62">
-        <v>32027601.980588164</v>
+        <v>33196623.330213763</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7085,7 +7085,7 @@
         <v>28</v>
       </c>
       <c r="D63">
-        <v>31605125.469620425</v>
+        <v>32846057.714729894</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7099,7 +7099,7 @@
         <v>11</v>
       </c>
       <c r="D64">
-        <v>20987173.704531677</v>
+        <v>21789673.306241743</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7113,7 +7113,7 @@
         <v>18</v>
       </c>
       <c r="D65">
-        <v>21014140.177526101</v>
+        <v>21821329.600626506</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7127,7 +7127,7 @@
         <v>19</v>
       </c>
       <c r="D66">
-        <v>21042966.407278776</v>
+        <v>21855169.087727465</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7141,7 +7141,7 @@
         <v>20</v>
       </c>
       <c r="D67">
-        <v>21107024.695618026</v>
+        <v>21930367.947951812</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7155,7 +7155,7 @@
         <v>21</v>
       </c>
       <c r="D68">
-        <v>21181332.310091566</v>
+        <v>21912952.027951803</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7169,7 +7169,7 @@
         <v>22</v>
       </c>
       <c r="D69">
-        <v>21268562.987951811</v>
+        <v>21895536.107951812</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7183,7 +7183,7 @@
         <v>23</v>
       </c>
       <c r="D70">
-        <v>21259855.027951807</v>
+        <v>21886828.147951804</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7197,7 +7197,7 @@
         <v>24</v>
       </c>
       <c r="D71">
-        <v>21251147.067951802</v>
+        <v>21878120.187951803</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7211,7 +7211,7 @@
         <v>25</v>
       </c>
       <c r="D72">
-        <v>21167045.705340073</v>
+        <v>21800922.921103768</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7225,7 +7225,7 @@
         <v>26</v>
       </c>
       <c r="D73">
-        <v>20837454.101038996</v>
+        <v>21520020.985619899</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7239,7 +7239,7 @@
         <v>27</v>
       </c>
       <c r="D74">
-        <v>20507862.496737923</v>
+        <v>21239119.05013603</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7253,7 +7253,7 @@
         <v>28</v>
       </c>
       <c r="D75">
-        <v>20112352.571576633</v>
+        <v>20902036.727555387</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7267,7 +7267,7 @@
         <v>11</v>
       </c>
       <c r="D76">
-        <v>24184701.493105326</v>
+        <v>25156419.128239412</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7281,7 +7281,7 @@
         <v>18</v>
       </c>
       <c r="D77">
-        <v>24230315.906195108</v>
+        <v>25209966.482736107</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7295,7 +7295,7 @@
         <v>19</v>
       </c>
       <c r="D78">
-        <v>24269080.373291876</v>
+        <v>25255472.596284494</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7309,7 +7309,7 @@
         <v>20</v>
       </c>
       <c r="D79">
-        <v>24346609.307485424</v>
+        <v>25346484.823381271</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7323,7 +7323,7 @@
         <v>21</v>
       </c>
       <c r="D80">
-        <v>24424138.241678979</v>
+        <v>25263337.850478046</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7337,7 +7337,7 @@
         <v>22</v>
       </c>
       <c r="D81">
-        <v>24501667.175872527</v>
+        <v>25180190.87757482</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7351,7 +7351,7 @@
         <v>23</v>
       </c>
       <c r="D82">
-        <v>24435748.855012309</v>
+        <v>25124010.490478039</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7365,7 +7365,7 @@
         <v>24</v>
       </c>
       <c r="D83">
-        <v>24369830.534152094</v>
+        <v>25067830.103381272</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7379,7 +7379,7 @@
         <v>25</v>
       </c>
       <c r="D84">
-        <v>24040238.929851018</v>
+        <v>24786928.167897392</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7393,7 +7393,7 @@
         <v>26</v>
       </c>
       <c r="D85">
-        <v>23710647.325549942</v>
+        <v>24506026.232413527</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7407,7 +7407,7 @@
         <v>27</v>
       </c>
       <c r="D86">
-        <v>23381055.721248869</v>
+        <v>24225124.296929657</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7421,7 +7421,7 @@
         <v>28</v>
       </c>
       <c r="D87">
-        <v>22985545.796087582</v>
+        <v>23888041.974349014</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7435,7 +7435,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <v>27064744.663609277</v>
+        <v>28150465.615981348</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7449,7 +7449,7 @@
         <v>18</v>
       </c>
       <c r="D89">
-        <v>27103509.130706053</v>
+        <v>28195971.729529735</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7463,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="D90">
-        <v>27142273.597802825</v>
+        <v>28241477.843078122</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7477,7 +7477,7 @@
         <v>20</v>
       </c>
       <c r="D91">
-        <v>27219802.531996373</v>
+        <v>28332490.070174899</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7491,7 +7491,7 @@
         <v>21</v>
       </c>
       <c r="D92">
-        <v>27297331.466189925</v>
+        <v>28249343.097271673</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7505,7 +7505,7 @@
         <v>22</v>
       </c>
       <c r="D93">
-        <v>27374860.400383472</v>
+        <v>28166196.124368448</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7519,7 +7519,7 @@
         <v>23</v>
       </c>
       <c r="D94">
-        <v>27308942.079523258</v>
+        <v>28110015.737271667</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7533,7 +7533,7 @@
         <v>24</v>
       </c>
       <c r="D95">
-        <v>27243023.758663043</v>
+        <v>28053835.3501749</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7547,7 +7547,7 @@
         <v>25</v>
       </c>
       <c r="D96">
-        <v>26913432.154361967</v>
+        <v>27772933.41469102</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7561,7 +7561,7 @@
         <v>26</v>
       </c>
       <c r="D97">
-        <v>26583840.550060891</v>
+        <v>27492031.479207154</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7575,7 +7575,7 @@
         <v>27</v>
       </c>
       <c r="D98">
-        <v>26254248.945759818</v>
+        <v>27211129.543723285</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7589,7 +7589,7 @@
         <v>28</v>
       </c>
       <c r="D99">
-        <v>25858739.020598527</v>
+        <v>26874047.221142642</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7603,7 +7603,7 @@
         <v>11</v>
       </c>
       <c r="D100">
-        <v>29937937.888120223</v>
+        <v>31136470.862774972</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7617,7 +7617,7 @@
         <v>18</v>
       </c>
       <c r="D101">
-        <v>29976702.355217002</v>
+        <v>31181976.976323359</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7631,7 +7631,7 @@
         <v>19</v>
       </c>
       <c r="D102">
-        <v>30015466.822313771</v>
+        <v>31227483.089871746</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7645,7 +7645,7 @@
         <v>20</v>
       </c>
       <c r="D103">
-        <v>30092995.756507318</v>
+        <v>31318495.316968523</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7659,7 +7659,7 @@
         <v>21</v>
       </c>
       <c r="D104">
-        <v>30170524.690700874</v>
+        <v>31235348.344065297</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7673,7 +7673,7 @@
         <v>22</v>
       </c>
       <c r="D105">
-        <v>30248053.624894422</v>
+        <v>31152201.371162072</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7687,7 +7687,7 @@
         <v>23</v>
       </c>
       <c r="D106">
-        <v>30182135.304034203</v>
+        <v>31096020.984065291</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7701,7 +7701,7 @@
         <v>24</v>
       </c>
       <c r="D107">
-        <v>30116216.983173989</v>
+        <v>31039840.596968524</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7715,7 +7715,7 @@
         <v>25</v>
       </c>
       <c r="D108">
-        <v>29786625.378872912</v>
+        <v>30758938.661484644</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7729,7 +7729,7 @@
         <v>26</v>
       </c>
       <c r="D109">
-        <v>29457033.774571836</v>
+        <v>30478036.726000778</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7743,7 +7743,7 @@
         <v>27</v>
       </c>
       <c r="D110">
-        <v>29127442.170270763</v>
+        <v>30197134.790516909</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7757,7 +7757,7 @@
         <v>28</v>
       </c>
       <c r="D111">
-        <v>28731932.245109476</v>
+        <v>29860052.467936266</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7771,7 +7771,7 @@
         <v>11</v>
       </c>
       <c r="D112">
-        <v>32811131.112631172</v>
+        <v>34122476.109568603</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7785,7 +7785,7 @@
         <v>18</v>
       </c>
       <c r="D113">
-        <v>32849895.579727951</v>
+        <v>34167982.223116986</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7799,7 +7799,7 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <v>32888660.04682472</v>
+        <v>34213488.336665377</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7813,7 +7813,7 @@
         <v>20</v>
       </c>
       <c r="D115">
-        <v>32966188.981018268</v>
+        <v>34304500.563762151</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7827,7 +7827,7 @@
         <v>21</v>
       </c>
       <c r="D116">
-        <v>33043717.915211823</v>
+        <v>34221353.590858921</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7841,7 +7841,7 @@
         <v>22</v>
       </c>
       <c r="D117">
-        <v>33121246.849405371</v>
+        <v>34138206.6179557</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7855,7 +7855,7 @@
         <v>23</v>
       </c>
       <c r="D118">
-        <v>33055328.528545152</v>
+        <v>34082026.230858922</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7869,7 +7869,7 @@
         <v>24</v>
       </c>
       <c r="D119">
-        <v>32989410.207684938</v>
+        <v>34025845.843762152</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7883,7 +7883,7 @@
         <v>25</v>
       </c>
       <c r="D120">
-        <v>32659818.603383861</v>
+        <v>33744943.908278272</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7897,7 +7897,7 @@
         <v>26</v>
       </c>
       <c r="D121">
-        <v>32330226.999082785</v>
+        <v>33464041.972794406</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7911,7 +7911,7 @@
         <v>27</v>
       </c>
       <c r="D122">
-        <v>32000635.394781712</v>
+        <v>33183140.037310537</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7925,20 +7925,20 @@
         <v>28</v>
       </c>
       <c r="D123">
-        <v>31605125.469620425</v>
+        <v>32846057.714729894</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{A12CBDB9-1F7C-46C0-8E93-7D6D426239BD}"/>
+  <autoFilter ref="A3:D123" xr:uid="{F4745435-A29B-4C18-BE63-7D88B439B252}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{86F73FCB-A243-4103-8D45-8060B7ECC076}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B23E71A4-25DF-4FD3-A66A-834AA0D40646}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4A1C75-E0C5-4580-8414-8EA7B24729B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9310B120-12AE-4C26-B5E1-7B7DBB4878A7}">
   <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12062,16 +12062,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E243" xr:uid="{A9868ACF-1B2A-4388-A586-F92DFCBECDB9}"/>
+  <autoFilter ref="A3:E243" xr:uid="{D60F9EF4-BF56-4ED8-B1DE-46D5E7DF3697}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F64220E8-3023-4CFC-947F-BE2FBF9FBEEB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DD862116-364C-4FD7-ADFC-454D07E2019D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A93BD8C-38B6-4320-848C-58CC2CE6B131}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9E141-4EFF-46E7-9514-8B97AB1D95C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12119,16 +12119,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{978C9007-E665-4011-8D83-E733D2B0FE6F}"/>
+  <autoFilter ref="A3:A5" xr:uid="{DF1CF79E-DEDE-4FFC-9219-E1CFCC01205D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{22DA0ABA-BBAF-4929-AEC7-FE6198AAB818}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{ED031C23-CD7F-48AC-BF63-C017FF5AFB0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99712966-CE4D-4118-88BE-084ADB752DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ABEE65-ECC0-48B9-92F5-72B40D2FCE11}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12232,16 +12232,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{9EE6581C-6A95-4F80-B908-E75631E723B9}"/>
+  <autoFilter ref="A3:C9" xr:uid="{D9A0E559-056D-42D8-9661-DF538EB58005}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8962F48C-124E-45FA-BA3E-51DB6FAA9E99}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C5FF1CEA-8826-4037-B8BE-FAC97FA2F60C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732DCF8E-29EA-46CE-B4C2-97E5D5042E74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F7F5C-8DA7-494B-902A-4F6A36139842}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12333,16 +12333,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A15" xr:uid="{C211BB2C-80D8-4F80-983D-D790DF21770F}"/>
+  <autoFilter ref="A3:A15" xr:uid="{7E358545-533A-4EA3-929C-2C0BE5E2C06A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{941F17BA-E6F8-4E3E-80FA-FE79E28C199B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B410AFC5-6F2E-45CD-AE53-DCFA0C0B6531}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23E605B-E01F-451A-8A47-845BA52ADF66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4F3FDC-5CB8-4348-9887-5EC0A1EC6546}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12384,16 +12384,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{35F6BCAF-4EC0-4B81-836B-3A0CA46107CB}"/>
+  <autoFilter ref="A3:A5" xr:uid="{A963E18C-68CA-4C43-B143-2041CE7B7BFA}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{61CA73A9-0865-4B44-B01D-C9A8AC49DC68}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2C3A2827-D1BC-42CE-963B-7835F23F5A6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025E4968-4554-4124-A1F2-1D8FB455E5B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68035B-4CCF-424E-9C27-269DDF5E5B87}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12440,16 +12440,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A6" xr:uid="{52A0F456-C030-460C-A821-9D7F0461076F}"/>
+  <autoFilter ref="A3:A6" xr:uid="{56520351-69E3-4670-80E6-D72D7BBF7736}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7BB3A8CA-88A3-4977-9BD0-9733C43C4E5B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1517E555-8F63-4ED1-9885-40A35B9FFA96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8B01BE-A9A1-4083-96D6-7C2B1BF4177B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6DFC28-2E4B-4123-89B9-00AC002BD271}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12497,16 +12497,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{A843DA1D-5E68-4756-B50C-25943963BCCF}"/>
+  <autoFilter ref="A3:A5" xr:uid="{9F2B7977-6A05-4A6C-9A64-0A6537885023}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{61B81BE5-7465-4D53-9117-D60405D238B5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CBE3921E-8501-42BA-AF1F-92F87D5B8DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585912A-F7DE-4B2C-ABA9-592AF1D7DFC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D136585B-2544-4BE3-89AC-78BBB3E382E4}">
   <dimension ref="A1:G1443"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -45676,16 +45676,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G1443" xr:uid="{4ABF5D5E-EF8B-41DF-8518-615A8BC04168}"/>
+  <autoFilter ref="A3:G1443" xr:uid="{6FE801EA-2919-4DA7-B4B5-0BD75C31C9C5}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{64AB2C6E-D9E2-495C-A710-0F6B6E8D45FE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E43D95DE-3FCB-42E1-8ACA-9931CF23FFDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE9F2CB-48E3-4D11-8254-CDCCFD9BDA78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D007344-C534-4CAD-BAA1-F3A718F2958F}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47406,16 +47406,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{339BB890-DBE1-4EB1-81C0-E3AC2289DA32}"/>
+  <autoFilter ref="A3:D123" xr:uid="{6E746DB3-4B7B-4AC5-940F-7A616ED4A5E5}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{61A72227-066E-475C-BC80-F43231F206B7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F6BD08CD-E9B8-45CD-A0C7-682E5B8F7281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0957F086-B437-4E8A-BEC8-980CE29B6996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA30343-564C-40CB-B54D-FC2AE19803C0}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47472,16 +47472,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A8" xr:uid="{593B1B21-4412-48CB-AB8B-BDE87C6A614C}"/>
+  <autoFilter ref="A3:A8" xr:uid="{349D245C-E436-44D2-B6D5-7E3F63A7770D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{77D29131-476A-4085-ADEE-659923C30BAB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7D5D3F64-356D-4564-8B35-42A73CC6D324}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74348D6E-5E84-4EF2-9B9F-77496B090DC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE51B69-F825-4DAB-8C99-31620D0B0C05}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -47556,16 +47556,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B8" xr:uid="{62561A34-5FD0-466E-BF7F-EDA2FB60E85A}"/>
+  <autoFilter ref="A3:B8" xr:uid="{9752A62A-5DBD-4D31-854C-86617827DF07}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3100896A-E1D5-4BE6-9809-AC318F44B990}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2C41205C-AA8A-43B8-BECF-F7C5B7E25783}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169CCA46-0DEF-4E1C-BA7B-F4AE7EAB10A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4432CE78-E610-4BEE-BE79-0BA677800C48}">
   <dimension ref="A1:F723"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62012,16 +62012,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F723" xr:uid="{725603C4-2B97-44B3-B0B6-3F3317A54854}"/>
+  <autoFilter ref="A3:F723" xr:uid="{2D340A2E-5918-4065-94D2-BF2F86B154A0}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{301E0477-8612-4856-98B2-326568A3015D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A34C3682-72A5-46B8-BF9A-C245C5486CFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A2F22C-3B36-47D7-8E8A-05174C25A62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78608BA-C730-46A2-8737-BCA43B520E20}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62678,16 +62678,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D47" xr:uid="{B16BA26A-0BEC-4AC3-ADA4-CC7FDAA58AA0}"/>
+  <autoFilter ref="A3:D47" xr:uid="{81AFD181-BF2A-429A-964C-4F291C88E088}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A4D0518A-DB22-42D5-9255-3DDDF6E3E586}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{555B95E0-A792-46B3-9A3C-5923548ECAA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE70DCBD-1D5B-4CF2-959A-D1E6FD9804B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57479131-CA71-4E1F-9E15-02BCED84CD86}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62730,16 +62730,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B4" xr:uid="{6A7F169D-4220-462E-865E-62BC3775DDCC}"/>
+  <autoFilter ref="A3:B4" xr:uid="{731D5FCC-337C-497A-92D0-31D1B5B2EA9B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E1185587-1B05-4EF0-BA95-C309BE7B6E01}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C7348C8C-5704-44D9-95C6-B8DCB7DDA850}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0816A89E-5C8C-45F4-BED9-8DF75954B7BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE7D22A-50A8-4197-A57A-9D5A70D69B54}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62790,16 +62790,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{749071FC-F66E-4DC3-BF0B-849980969E7F}"/>
+  <autoFilter ref="A3:B5" xr:uid="{431C76B5-54DF-4F91-8E93-DBBCE8F3EA82}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0ED98E20-AE28-4B88-B373-323209410DB0}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D4465621-4CE4-4511-A02B-F9245AA5A76F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E729E1-8D58-481C-A67B-FDF174DC26B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F732641-A723-423D-B139-C9142AD34BD6}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62877,7 +62877,7 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>49.7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -62903,16 +62903,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{2EF7279F-3DD8-49FD-94AA-04235646F980}"/>
+  <autoFilter ref="A3:C9" xr:uid="{5F3E5212-DC32-49FA-92CD-6C50EAA21CAE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D2D993CC-EA72-4B47-912C-D13A02AF9B8B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D803AA34-B33D-4855-A259-B345C7EC28AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5504A7-3F3F-4FF5-9E27-7C605637EDD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CD1934-7089-48F0-BCC5-FA8892A1D00F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62990,7 +62990,7 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>49.7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -63016,16 +63016,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C9" xr:uid="{1A31E8DF-F5C1-4CDC-AD34-5E0F26064561}"/>
+  <autoFilter ref="A3:C9" xr:uid="{2F7076F5-136F-4885-A431-ABE5247BDD9B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4FDF4307-4596-41B3-8498-4BAE565EDFDF}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B73EF76E-9120-4B51-97F9-735F1F667BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED663E8-27A9-4100-B871-57F9FB946CF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7219A8-30AE-4A2E-81CC-E7BE073FEE76}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -63088,7 +63088,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-34.457304086021516</v>
+        <v>-40.449878709677435</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -63108,7 +63108,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-34.457304086021516</v>
+        <v>29.213801290322582</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -63128,7 +63128,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>202.43666150537626</v>
+        <v>167.97935741935476</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -63192,9 +63192,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F9" xr:uid="{EB68229C-789F-418D-ACB0-982589B739F2}"/>
+  <autoFilter ref="A3:F9" xr:uid="{E3A93309-5A03-4BEF-9857-30C6DABADB48}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{79C72492-0F58-4EE2-9FDB-472C89E55DE9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5DBBD1C4-B058-439E-A324-591A046CB9CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
